--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -432,34 +432,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.832769577000596</v>
+        <v>0.792172926112797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.737776805087991</v>
+        <v>0.761415569927894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.796346385802911</v>
+        <v>0.794685372403072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.551330798479087</v>
+        <v>0.707273722780202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.764224715919422</v>
+        <v>0.718801908296159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.882444411188671</v>
+        <v>0.880362728009305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.699870841312594</v>
+        <v>0.701108947890267</v>
       </c>
       <c r="I2" t="n">
-        <v>0.79925235737027</v>
+        <v>0.723911380335843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.570020320757786</v>
+        <v>0.598699761297328</v>
       </c>
       <c r="K2" t="n">
-        <v>0.895052643455372</v>
+        <v>0.660721983664074</v>
       </c>
     </row>
     <row r="3">
@@ -467,34 +467,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.751021760153459</v>
+        <v>0.599088248771922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.741457027551676</v>
+        <v>0.645501299065432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.922255090489955</v>
+        <v>0.794530381277022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.784313725490196</v>
+        <v>0.625242731445997</v>
       </c>
       <c r="F3" t="n">
-        <v>0.791486974708192</v>
+        <v>0.588160974105242</v>
       </c>
       <c r="G3" t="n">
-        <v>0.885544512178713</v>
+        <v>0.872110712092897</v>
       </c>
       <c r="H3" t="n">
-        <v>0.798579927901068</v>
+        <v>0.769294368973077</v>
       </c>
       <c r="I3" t="n">
-        <v>0.722997350007419</v>
+        <v>0.74958071356108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.661643142092702</v>
+        <v>0.701139236471705</v>
       </c>
       <c r="K3" t="n">
-        <v>0.796515644133716</v>
+        <v>0.546983814392583</v>
       </c>
     </row>
     <row r="4">
@@ -502,34 +502,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.766688299611329</v>
+        <v>0.760500881133356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.772505560087666</v>
+        <v>0.758618127980539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.841738661158664</v>
+        <v>0.809490412766813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.579545454545455</v>
+        <v>0.677841401466591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.750906930285769</v>
+        <v>0.562619372634919</v>
       </c>
       <c r="G4" t="n">
-        <v>0.856590169079531</v>
+        <v>0.86974581204702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.749223952011629</v>
+        <v>0.793845222480012</v>
       </c>
       <c r="I4" t="n">
-        <v>0.465808087326347</v>
+        <v>0.522846998626103</v>
       </c>
       <c r="J4" t="n">
-        <v>0.604528492482927</v>
+        <v>0.70821798823452</v>
       </c>
       <c r="K4" t="n">
-        <v>0.68921994195011</v>
+        <v>0.565226745460006</v>
       </c>
     </row>
     <row r="5">
@@ -537,34 +537,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.697458945794952</v>
+        <v>0.736647609454859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624692418859928</v>
+        <v>0.629236462887567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.90658692697538</v>
+        <v>0.825778518939201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.56390977443609</v>
+        <v>0.675758568401985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.430212285799268</v>
+        <v>0.621475253244649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.90517648562136</v>
+        <v>0.85832777759893</v>
       </c>
       <c r="H5" t="n">
-        <v>0.51882248165969</v>
+        <v>0.687598853246759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.478610314282717</v>
+        <v>0.551757110868948</v>
       </c>
       <c r="J5" t="n">
-        <v>0.604537631893693</v>
+        <v>0.579992651628614</v>
       </c>
       <c r="K5" t="n">
-        <v>0.545249007779869</v>
+        <v>0.593704596101895</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold(All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold(Europe)</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,41 +32,42 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ paste('Supports the GCS if its other members* cover 64-72%
+of world emissions*', bold(High), ' : Global South + China +
+EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ paste('Supports the GCS if its other members* cover 64-72% of world emissions,
+*', bold('High color'), ' : High + Distributive effects displayed using colors on world map')</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
+*Mid: Global South + China</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+*Low: Global South + EU</t>
   </si>
 </sst>
 </file>
@@ -426,145 +433,175 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.792172926112797</v>
+        <v>0.684797846013269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.761415569927894</v>
+        <v>0.730390283144958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.794685372403072</v>
+        <v>0.721888822593033</v>
       </c>
       <c r="E2" t="n">
-        <v>0.707273722780202</v>
+        <v>0.793220476440396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.718801908296159</v>
+        <v>0.806061731494686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.880362728009305</v>
+        <v>0.725315089483971</v>
       </c>
       <c r="H2" t="n">
-        <v>0.701108947890267</v>
+        <v>0.709725010591962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.723911380335843</v>
+        <v>0.60367746807593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.598699761297328</v>
+        <v>0.802921625022916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.660721983664074</v>
+        <v>0.703649688948398</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.892630395702026</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.613190097859686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.599088248771922</v>
+        <v>0.631922747338702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.645501299065432</v>
+        <v>0.68464172802944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.794530381277022</v>
+        <v>0.60414441640184</v>
       </c>
       <c r="E3" t="n">
-        <v>0.625242731445997</v>
+        <v>0.692000384560851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.588160974105242</v>
+        <v>0.764023624110181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.872110712092897</v>
+        <v>0.593338755591008</v>
       </c>
       <c r="H3" t="n">
-        <v>0.769294368973077</v>
+        <v>0.764978780580193</v>
       </c>
       <c r="I3" t="n">
-        <v>0.74958071356108</v>
+        <v>0.687158186636906</v>
       </c>
       <c r="J3" t="n">
-        <v>0.701139236471705</v>
+        <v>0.678231464642976</v>
       </c>
       <c r="K3" t="n">
-        <v>0.546983814392583</v>
+        <v>0.630666968689808</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.868668628355021</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.557762638731718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.760500881133356</v>
+        <v>0.679004869341497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.758618127980539</v>
+        <v>0.74289069142581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.809490412766813</v>
+        <v>0.771098600012077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.677841401466591</v>
+        <v>0.769236558846297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.562619372634919</v>
+        <v>0.83596654741558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.86974581204702</v>
+        <v>0.566504911211525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.793845222480012</v>
+        <v>0.767597594944841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.522846998626103</v>
+        <v>0.670603338366483</v>
       </c>
       <c r="J4" t="n">
-        <v>0.70821798823452</v>
+        <v>0.633953440855902</v>
       </c>
       <c r="K4" t="n">
-        <v>0.565226745460006</v>
+        <v>0.682575327407304</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.876160911546928</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.570538630080154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.736647609454859</v>
+        <v>0.645460623471237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.629236462887567</v>
+        <v>0.681993956456158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.825778518939201</v>
+        <v>0.762733353729202</v>
       </c>
       <c r="E5" t="n">
-        <v>0.675758568401985</v>
+        <v>0.622594602050181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.621475253244649</v>
+        <v>0.820338845276832</v>
       </c>
       <c r="G5" t="n">
-        <v>0.85832777759893</v>
+        <v>0.618966284979516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.687598853246759</v>
+        <v>0.690022256508678</v>
       </c>
       <c r="I5" t="n">
-        <v>0.551757110868948</v>
+        <v>0.612454933195732</v>
       </c>
       <c r="J5" t="n">
-        <v>0.579992651628614</v>
+        <v>0.631254517516158</v>
       </c>
       <c r="K5" t="n">
-        <v>0.593704596101895</v>
+        <v>0.670645142503371</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.868214391306789</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.573626811841157</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold(All)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold(Europe)</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -53,21 +53,20 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">$ paste('Supports the GCS if its other members* cover 64-72%
-of world emissions*', bold(High), ' : Global South + China +
-EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ paste('Supports the GCS if its other members* cover 64-72% of world emissions,
-*', bold('High color'), ' : High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU</t>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>
@@ -445,40 +444,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.684797846013269</v>
+        <v>0.706041825583575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.730390283144958</v>
+        <v>0.73129803059076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721888822593033</v>
+        <v>0.727498942934658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.793220476440396</v>
+        <v>0.789504635514083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.806061731494686</v>
+        <v>0.805557424176577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.725315089483971</v>
+        <v>0.720077760686355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.709725010591962</v>
+        <v>0.726359854016397</v>
       </c>
       <c r="I2" t="n">
-        <v>0.60367746807593</v>
+        <v>0.606573972693472</v>
       </c>
       <c r="J2" t="n">
-        <v>0.802921625022916</v>
+        <v>0.78779732896461</v>
       </c>
       <c r="K2" t="n">
-        <v>0.703649688948398</v>
+        <v>0.701897252986994</v>
       </c>
       <c r="L2" t="n">
-        <v>0.892630395702026</v>
+        <v>0.89606999922271</v>
       </c>
       <c r="M2" t="n">
-        <v>0.613190097859686</v>
+        <v>0.664283633514775</v>
       </c>
     </row>
     <row r="3">
@@ -486,40 +485,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.631922747338702</v>
+        <v>0.651597070186574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.68464172802944</v>
+        <v>0.680324564723715</v>
       </c>
       <c r="D3" t="n">
-        <v>0.60414441640184</v>
+        <v>0.597986013142994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.692000384560851</v>
+        <v>0.681951231841709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.764023624110181</v>
+        <v>0.805458066814054</v>
       </c>
       <c r="G3" t="n">
-        <v>0.593338755591008</v>
+        <v>0.580466040127207</v>
       </c>
       <c r="H3" t="n">
-        <v>0.764978780580193</v>
+        <v>0.769634734479661</v>
       </c>
       <c r="I3" t="n">
-        <v>0.687158186636906</v>
+        <v>0.653239087865576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.678231464642976</v>
+        <v>0.65431742155192</v>
       </c>
       <c r="K3" t="n">
-        <v>0.630666968689808</v>
+        <v>0.629995293195343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.868668628355021</v>
+        <v>0.875000615572334</v>
       </c>
       <c r="M3" t="n">
-        <v>0.557762638731718</v>
+        <v>0.609623493848696</v>
       </c>
     </row>
     <row r="4">
@@ -527,40 +526,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679004869341497</v>
+        <v>0.686398868484946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.74289069142581</v>
+        <v>0.736330415549282</v>
       </c>
       <c r="D4" t="n">
-        <v>0.771098600012077</v>
+        <v>0.759143211244513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.769236558846297</v>
+        <v>0.772516709880343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.83596654741558</v>
+        <v>0.824062489070946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.566504911211525</v>
+        <v>0.575061436015004</v>
       </c>
       <c r="H4" t="n">
-        <v>0.767597594944841</v>
+        <v>0.776673070561148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.670603338366483</v>
+        <v>0.632905421198659</v>
       </c>
       <c r="J4" t="n">
-        <v>0.633953440855902</v>
+        <v>0.658815573176929</v>
       </c>
       <c r="K4" t="n">
-        <v>0.682575327407304</v>
+        <v>0.684293334926366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.876160911546928</v>
+        <v>0.865036107524227</v>
       </c>
       <c r="M4" t="n">
-        <v>0.570538630080154</v>
+        <v>0.612890876920247</v>
       </c>
     </row>
     <row r="5">
@@ -568,40 +567,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.645460623471237</v>
+        <v>0.652449169456294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.681993956456158</v>
+        <v>0.678123158338504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.762733353729202</v>
+        <v>0.741559688392613</v>
       </c>
       <c r="E5" t="n">
-        <v>0.622594602050181</v>
+        <v>0.628237965531377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.820338845276832</v>
+        <v>0.83693951905074</v>
       </c>
       <c r="G5" t="n">
-        <v>0.618966284979516</v>
+        <v>0.61950827367926</v>
       </c>
       <c r="H5" t="n">
-        <v>0.690022256508678</v>
+        <v>0.687673444477691</v>
       </c>
       <c r="I5" t="n">
-        <v>0.612454933195732</v>
+        <v>0.58481860058857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.631254517516158</v>
+        <v>0.600596583733675</v>
       </c>
       <c r="K5" t="n">
-        <v>0.670645142503371</v>
+        <v>0.671246837505236</v>
       </c>
       <c r="L5" t="n">
-        <v>0.868214391306789</v>
+        <v>0.870785953799257</v>
       </c>
       <c r="M5" t="n">
-        <v>0.573626811841157</v>
+        <v>0.593216638124922</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -53,20 +53,20 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
     <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
                                '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
   </si>
   <si>
     <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
                                      '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>
@@ -444,40 +444,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.706041825583575</v>
+        <v>0.657757973018818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.73129803059076</v>
+        <v>0.688160595583607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.727498942934658</v>
+        <v>0.753397348285344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.789504635514083</v>
+        <v>0.627385682537816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.805557424176577</v>
+        <v>0.848771216338856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.720077760686355</v>
+        <v>0.603075714398011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.726359854016397</v>
+        <v>0.707904376466329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.606573972693472</v>
+        <v>0.637497870612938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.78779732896461</v>
+        <v>0.61691572049826</v>
       </c>
       <c r="K2" t="n">
-        <v>0.701897252986994</v>
+        <v>0.665884503407556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.89606999922271</v>
+        <v>0.869712358856764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.664283633514775</v>
+        <v>0.603307739305438</v>
       </c>
     </row>
     <row r="3">
@@ -485,40 +485,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.651597070186574</v>
+        <v>0.676120341228827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.680324564723715</v>
+        <v>0.731501666372061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.597986013142994</v>
+        <v>0.759578759812179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.681951231841709</v>
+        <v>0.715781509811605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.805458066814054</v>
+        <v>0.826621609973818</v>
       </c>
       <c r="G3" t="n">
-        <v>0.580466040127207</v>
+        <v>0.539542753382839</v>
       </c>
       <c r="H3" t="n">
-        <v>0.769634734479661</v>
+        <v>0.777187061273175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.653239087865576</v>
+        <v>0.67466334415845</v>
       </c>
       <c r="J3" t="n">
-        <v>0.65431742155192</v>
+        <v>0.637890555129928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.629995293195343</v>
+        <v>0.672922348590199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.875000615572334</v>
+        <v>0.86513074970901</v>
       </c>
       <c r="M3" t="n">
-        <v>0.609623493848696</v>
+        <v>0.589366541153335</v>
       </c>
     </row>
     <row r="4">
@@ -526,40 +526,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.686398868484946</v>
+        <v>0.699010110708032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.736330415549282</v>
+        <v>0.7333558792255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.759143211244513</v>
+        <v>0.763148103910017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.772516709880343</v>
+        <v>0.770272348727413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.824062489070946</v>
+        <v>0.788435848365109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.575061436015004</v>
+        <v>0.713087172187091</v>
       </c>
       <c r="H4" t="n">
-        <v>0.776673070561148</v>
+        <v>0.74199477200258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.632905421198659</v>
+        <v>0.62534539350272</v>
       </c>
       <c r="J4" t="n">
-        <v>0.658815573176929</v>
+        <v>0.743491876231661</v>
       </c>
       <c r="K4" t="n">
-        <v>0.684293334926366</v>
+        <v>0.70796250180037</v>
       </c>
       <c r="L4" t="n">
-        <v>0.865036107524227</v>
+        <v>0.90518282762834</v>
       </c>
       <c r="M4" t="n">
-        <v>0.612890876920247</v>
+        <v>0.636481822477839</v>
       </c>
     </row>
     <row r="5">
@@ -567,40 +567,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.652449169456294</v>
+        <v>0.632380148473266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.678123158338504</v>
+        <v>0.679633244466616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.741559688392613</v>
+        <v>0.614641799995525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.628237965531377</v>
+        <v>0.680628787989002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.83693951905074</v>
+        <v>0.793318305400507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.61950827367926</v>
+        <v>0.566663585514635</v>
       </c>
       <c r="H5" t="n">
-        <v>0.687673444477691</v>
+        <v>0.774540600482755</v>
       </c>
       <c r="I5" t="n">
-        <v>0.58481860058857</v>
+        <v>0.661815968025775</v>
       </c>
       <c r="J5" t="n">
-        <v>0.600596583733675</v>
+        <v>0.647145596361043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.671246837505236</v>
+        <v>0.633776677259689</v>
       </c>
       <c r="L5" t="n">
-        <v>0.870785953799257</v>
+        <v>0.875032786022504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.593216638124922</v>
+        <v>0.560366948341141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -438,13 +441,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.657757973018818</v>
+        <v>0.646020160692236</v>
       </c>
       <c r="C2" t="n">
         <v>0.688160595583607</v>
@@ -474,18 +480,21 @@
         <v>0.665884503407556</v>
       </c>
       <c r="L2" t="n">
+        <v>0.566004208236377</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.869712358856764</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.603307739305438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.676120341228827</v>
+        <v>0.673589957678886</v>
       </c>
       <c r="C3" t="n">
         <v>0.731501666372061</v>
@@ -515,18 +524,21 @@
         <v>0.672922348590199</v>
       </c>
       <c r="L3" t="n">
+        <v>0.649824905118065</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.86513074970901</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.589366541153335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.699010110708032</v>
+        <v>0.68506153675379</v>
       </c>
       <c r="C4" t="n">
         <v>0.7333558792255</v>
@@ -556,18 +568,21 @@
         <v>0.70796250180037</v>
       </c>
       <c r="L4" t="n">
+        <v>0.607672609910995</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.90518282762834</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.636481822477839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.632380148473266</v>
+        <v>0.619858273857402</v>
       </c>
       <c r="C5" t="n">
         <v>0.679633244466616</v>
@@ -597,9 +612,12 @@
         <v>0.633776677259689</v>
       </c>
       <c r="L5" t="n">
+        <v>0.554489061890469</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.875032786022504</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.560366948341141</v>
       </c>
     </row>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -450,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.646020160692236</v>
+        <v>0.647240480131028</v>
       </c>
       <c r="C2" t="n">
         <v>0.688160595583607</v>
@@ -477,16 +477,16 @@
         <v>0.61691572049826</v>
       </c>
       <c r="K2" t="n">
-        <v>0.665884503407556</v>
+        <v>0.665933688883394</v>
       </c>
       <c r="L2" t="n">
-        <v>0.566004208236377</v>
+        <v>0.572690723237937</v>
       </c>
       <c r="M2" t="n">
         <v>0.869712358856764</v>
       </c>
       <c r="N2" t="n">
-        <v>0.603307739305438</v>
+        <v>0.603471262597791</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +494,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.673589957678886</v>
+        <v>0.672054760884641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.731501666372061</v>
+        <v>0.73150166637206</v>
       </c>
       <c r="D3" t="n">
         <v>0.759578759812179</v>
@@ -521,16 +521,16 @@
         <v>0.637890555129928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.672922348590199</v>
+        <v>0.67292535125419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.649824905118065</v>
+        <v>0.639033952437169</v>
       </c>
       <c r="M3" t="n">
         <v>0.86513074970901</v>
       </c>
       <c r="N3" t="n">
-        <v>0.589366541153335</v>
+        <v>0.589468339412676</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.68506153675379</v>
+        <v>0.68518253119246</v>
       </c>
       <c r="C4" t="n">
         <v>0.7333558792255</v>
@@ -565,16 +565,16 @@
         <v>0.743491876231661</v>
       </c>
       <c r="K4" t="n">
-        <v>0.70796250180037</v>
+        <v>0.708149579691965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.607672609910995</v>
+        <v>0.604866837966034</v>
       </c>
       <c r="M4" t="n">
         <v>0.90518282762834</v>
       </c>
       <c r="N4" t="n">
-        <v>0.636481822477839</v>
+        <v>0.636828257869627</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.619858273857402</v>
+        <v>0.61895417279981</v>
       </c>
       <c r="C5" t="n">
         <v>0.679633244466616</v>
@@ -609,16 +609,16 @@
         <v>0.647145596361043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.633776677259689</v>
+        <v>0.633861854984241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.554489061890469</v>
+        <v>0.5411746546684</v>
       </c>
       <c r="M5" t="n">
         <v>0.875032786022504</v>
       </c>
       <c r="N5" t="n">
-        <v>0.560366948341141</v>
+        <v>0.560767240057917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ics_positive.xlsx
+++ b/xlsx/country_comparison/ics_positive.xlsx
@@ -450,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.647240480131028</v>
+        <v>0.647210522905015</v>
       </c>
       <c r="C2" t="n">
         <v>0.688160595583607</v>
@@ -494,10 +494,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.672054760884641</v>
+        <v>0.671354010141054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.73150166637206</v>
+        <v>0.731501666372061</v>
       </c>
       <c r="D3" t="n">
         <v>0.759578759812179</v>
@@ -524,7 +524,7 @@
         <v>0.67292535125419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.639033952437169</v>
+        <v>0.63442019211072</v>
       </c>
       <c r="M3" t="n">
         <v>0.86513074970901</v>
@@ -538,7 +538,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.68518253119246</v>
+        <v>0.684899159160603</v>
       </c>
       <c r="C4" t="n">
         <v>0.7333558792255</v>
@@ -568,7 +568,7 @@
         <v>0.708149579691965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.604866837966034</v>
+        <v>0.601821932205212</v>
       </c>
       <c r="M4" t="n">
         <v>0.90518282762834</v>
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.61895417279981</v>
+        <v>0.618798692282585</v>
       </c>
       <c r="C5" t="n">
         <v>0.679633244466616</v>
@@ -612,7 +612,7 @@
         <v>0.633861854984241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5411746546684</v>
+        <v>0.540183622108344</v>
       </c>
       <c r="M5" t="n">
         <v>0.875032786022504</v>
